--- a/Recursos_Archivos_CSV/FioDio/CLIENTES-GOB-TUR.xlsx
+++ b/Recursos_Archivos_CSV/FioDio/CLIENTES-GOB-TUR.xlsx
@@ -380,10 +380,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
@@ -402,7 +402,7 @@
     <col min="12" max="12" width="16.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row spans="1:13" x14ac:dyDescent="0.3" outlineLevel="0" r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -441,6 +441,2820 @@
       </c>
       <c r="M1" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>1664</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE GUBERNAMENTAL</t>
+        </is>
+      </c>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t>sv-cm1664</t>
+        </is>
+      </c>
+      <c r="F2" s="0" t="inlineStr">
+        <is>
+          <t>015965532</t>
+        </is>
+      </c>
+      <c r="G2" s="0" t="inlineStr">
+        <is>
+          <t>02100911630058</t>
+        </is>
+      </c>
+      <c r="H2" s="0" t="inlineStr">
+        <is>
+          <t>CABRERA MARTINEZ</t>
+        </is>
+      </c>
+      <c r="I2" s="0" t="inlineStr">
+        <is>
+          <t>MARTA ALICIA</t>
+        </is>
+      </c>
+      <c r="J2" s="0" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="K2" s="0" t="inlineStr">
+        <is>
+          <t>62805523</t>
+        </is>
+      </c>
+      <c r="L2" s="0" t="inlineStr">
+        <is>
+          <t>202.80</t>
+        </is>
+      </c>
+      <c r="M2" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>2158</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE GUBERNAMENTAL</t>
+        </is>
+      </c>
+      <c r="E3" s="0" t="inlineStr">
+        <is>
+          <t>sv-ra2158</t>
+        </is>
+      </c>
+      <c r="F3" s="0" t="inlineStr">
+        <is>
+          <t>002873946</t>
+        </is>
+      </c>
+      <c r="G3" s="0" t="inlineStr">
+        <is>
+          <t>02102501671058</t>
+        </is>
+      </c>
+      <c r="H3" s="0" t="inlineStr">
+        <is>
+          <t>RODRIGUEZ DE TOVAR</t>
+        </is>
+      </c>
+      <c r="I3" s="0" t="inlineStr">
+        <is>
+          <t>ANA LIZ</t>
+        </is>
+      </c>
+      <c r="J3" s="0" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="K3" s="0" t="inlineStr">
+        <is>
+          <t>64405701</t>
+        </is>
+      </c>
+      <c r="L3" s="0" t="inlineStr">
+        <is>
+          <t>270.20</t>
+        </is>
+      </c>
+      <c r="M3" s="0" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>3746</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE TURISTA</t>
+        </is>
+      </c>
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t>sv-ac3746</t>
+        </is>
+      </c>
+      <c r="F4" s="0" t="inlineStr">
+        <is>
+          <t>019271511</t>
+        </is>
+      </c>
+      <c r="G4" s="0" t="inlineStr">
+        <is>
+          <t>04111206530015</t>
+        </is>
+      </c>
+      <c r="H4" s="0" t="inlineStr">
+        <is>
+          <t>ARDON GAVARRETE</t>
+        </is>
+      </c>
+      <c r="I4" s="0" t="inlineStr">
+        <is>
+          <t>CARLOS ALBERTO</t>
+        </is>
+      </c>
+      <c r="J4" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K4" s="0" t="inlineStr">
+        <is>
+          <t>62789958</t>
+        </is>
+      </c>
+      <c r="L4" s="0" t="inlineStr">
+        <is>
+          <t>40.00</t>
+        </is>
+      </c>
+      <c r="M4" s="0" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>5897</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE GUBERNAMENTAL</t>
+        </is>
+      </c>
+      <c r="E5" s="0" t="inlineStr">
+        <is>
+          <t>sv-vs5897</t>
+        </is>
+      </c>
+      <c r="F5" s="0" t="inlineStr">
+        <is>
+          <t>001415614</t>
+        </is>
+      </c>
+      <c r="G5" s="0" t="inlineStr">
+        <is>
+          <t>06100911591010</t>
+        </is>
+      </c>
+      <c r="H5" s="0" t="inlineStr">
+        <is>
+          <t>VASQUEZ MELARA</t>
+        </is>
+      </c>
+      <c r="I5" s="0" t="inlineStr">
+        <is>
+          <t>SALVADOR</t>
+        </is>
+      </c>
+      <c r="J5" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K5" s="0" t="inlineStr">
+        <is>
+          <t>63335201</t>
+        </is>
+      </c>
+      <c r="L5" s="0" t="inlineStr">
+        <is>
+          <t>334.40</t>
+        </is>
+      </c>
+      <c r="M5" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>9858</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE GUBERNAMENTAL</t>
+        </is>
+      </c>
+      <c r="E6" s="0" t="inlineStr">
+        <is>
+          <t>sv-pw9858</t>
+        </is>
+      </c>
+      <c r="F6" s="0" t="inlineStr">
+        <is>
+          <t>001083386</t>
+        </is>
+      </c>
+      <c r="G6" s="0" t="inlineStr">
+        <is>
+          <t>06172101640020</t>
+        </is>
+      </c>
+      <c r="H6" s="0" t="inlineStr">
+        <is>
+          <t>PALACIOS COLOCHO</t>
+        </is>
+      </c>
+      <c r="I6" s="0" t="inlineStr">
+        <is>
+          <t>WALTER MAURICIO</t>
+        </is>
+      </c>
+      <c r="J6" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K6" s="0" t="inlineStr">
+        <is>
+          <t>62272957</t>
+        </is>
+      </c>
+      <c r="L6" s="0" t="inlineStr">
+        <is>
+          <t>164.60</t>
+        </is>
+      </c>
+      <c r="M6" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>16424</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE GUBERNAMENTAL</t>
+        </is>
+      </c>
+      <c r="E7" s="0" t="inlineStr">
+        <is>
+          <t>sv-on16424</t>
+        </is>
+      </c>
+      <c r="F7" s="0" t="inlineStr">
+        <is>
+          <t>029324227</t>
+        </is>
+      </c>
+      <c r="G7" s="0" t="inlineStr">
+        <is>
+          <t>13072512641016</t>
+        </is>
+      </c>
+      <c r="H7" s="0" t="inlineStr">
+        <is>
+          <t>ORELLANA CHICA</t>
+        </is>
+      </c>
+      <c r="I7" s="0" t="inlineStr">
+        <is>
+          <t>NATIVIDAD CRISTINO</t>
+        </is>
+      </c>
+      <c r="J7" s="0" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="K7" s="0" t="inlineStr">
+        <is>
+          <t>62061046</t>
+        </is>
+      </c>
+      <c r="L7" s="0" t="inlineStr">
+        <is>
+          <t>121.80</t>
+        </is>
+      </c>
+      <c r="M7" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>22084</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE GUBERNAMENTAL</t>
+        </is>
+      </c>
+      <c r="E8" s="0" t="inlineStr">
+        <is>
+          <t>sv-dy22084</t>
+        </is>
+      </c>
+      <c r="F8" s="0" t="inlineStr">
+        <is>
+          <t>011308479</t>
+        </is>
+      </c>
+      <c r="G8" s="0" t="inlineStr">
+        <is>
+          <t>11230804761036</t>
+        </is>
+      </c>
+      <c r="H8" s="0" t="inlineStr">
+        <is>
+          <t>DE LA O CHAVEZ</t>
+        </is>
+      </c>
+      <c r="I8" s="0" t="inlineStr">
+        <is>
+          <t>YANIRA DEL CARMEN</t>
+        </is>
+      </c>
+      <c r="J8" s="0" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="K8" s="0" t="inlineStr">
+        <is>
+          <t>75940982</t>
+        </is>
+      </c>
+      <c r="L8" s="0" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="M8" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>23204</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE GUBERNAMENTAL</t>
+        </is>
+      </c>
+      <c r="E9" s="0" t="inlineStr">
+        <is>
+          <t>sv-sh23204</t>
+        </is>
+      </c>
+      <c r="F9" s="0" t="inlineStr">
+        <is>
+          <t>037696573</t>
+        </is>
+      </c>
+      <c r="G9" s="0" t="inlineStr">
+        <is>
+          <t>06142707871033</t>
+        </is>
+      </c>
+      <c r="H9" s="0" t="inlineStr">
+        <is>
+          <t>SORIANO BONILLA</t>
+        </is>
+      </c>
+      <c r="I9" s="0" t="inlineStr">
+        <is>
+          <t>HECTOR ALEJANDRO</t>
+        </is>
+      </c>
+      <c r="J9" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K9" s="0" t="inlineStr">
+        <is>
+          <t>77953576</t>
+        </is>
+      </c>
+      <c r="L9" s="0" t="inlineStr">
+        <is>
+          <t>205.20</t>
+        </is>
+      </c>
+      <c r="M9" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>26082</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE GUBERNAMENTAL</t>
+        </is>
+      </c>
+      <c r="E10" s="0" t="inlineStr">
+        <is>
+          <t>sv-nj26082</t>
+        </is>
+      </c>
+      <c r="F10" s="0" t="inlineStr">
+        <is>
+          <t>004813112</t>
+        </is>
+      </c>
+      <c r="G10" s="0" t="inlineStr">
+        <is>
+          <t>07032503651011</t>
+        </is>
+      </c>
+      <c r="H10" s="0" t="inlineStr">
+        <is>
+          <t>NOLASCO LOPEZ</t>
+        </is>
+      </c>
+      <c r="I10" s="0" t="inlineStr">
+        <is>
+          <t>JOSE ANTONIO</t>
+        </is>
+      </c>
+      <c r="J10" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K10" s="0" t="inlineStr">
+        <is>
+          <t>77109443</t>
+        </is>
+      </c>
+      <c r="L10" s="0" t="inlineStr">
+        <is>
+          <t>219.80</t>
+        </is>
+      </c>
+      <c r="M10" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>27200</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE GUBERNAMENTAL</t>
+        </is>
+      </c>
+      <c r="E11" s="0" t="inlineStr">
+        <is>
+          <t>sv-ae27200</t>
+        </is>
+      </c>
+      <c r="F11" s="0" t="inlineStr">
+        <is>
+          <t>022220448</t>
+        </is>
+      </c>
+      <c r="G11" s="0" t="inlineStr">
+        <is>
+          <t>07110810661017</t>
+        </is>
+      </c>
+      <c r="H11" s="0" t="inlineStr">
+        <is>
+          <t>AREVALO</t>
+        </is>
+      </c>
+      <c r="I11" s="0" t="inlineStr">
+        <is>
+          <t>ELMER ENRIQUE</t>
+        </is>
+      </c>
+      <c r="J11" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K11" s="0" t="inlineStr">
+        <is>
+          <t>78533506</t>
+        </is>
+      </c>
+      <c r="L11" s="0" t="inlineStr">
+        <is>
+          <t>360.40</t>
+        </is>
+      </c>
+      <c r="M11" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>47631</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE GUBERNAMENTAL</t>
+        </is>
+      </c>
+      <c r="E12" s="0" t="inlineStr">
+        <is>
+          <t>sv-cc47631</t>
+        </is>
+      </c>
+      <c r="F12" s="0" t="inlineStr">
+        <is>
+          <t>022169985</t>
+        </is>
+      </c>
+      <c r="G12" s="0" t="inlineStr">
+        <is>
+          <t>01122605741012</t>
+        </is>
+      </c>
+      <c r="H12" s="0" t="inlineStr">
+        <is>
+          <t>CASTRO AGUILAR</t>
+        </is>
+      </c>
+      <c r="I12" s="0" t="inlineStr">
+        <is>
+          <t>CARLOS ADALBERTO</t>
+        </is>
+      </c>
+      <c r="J12" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K12" s="0" t="inlineStr">
+        <is>
+          <t>65414440</t>
+        </is>
+      </c>
+      <c r="L12" s="0" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="M12" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>47652</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D13" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE GUBERNAMENTAL</t>
+        </is>
+      </c>
+      <c r="E13" s="0" t="inlineStr">
+        <is>
+          <t>sv-le47652</t>
+        </is>
+      </c>
+      <c r="F13" s="0" t="inlineStr">
+        <is>
+          <t>017998303</t>
+        </is>
+      </c>
+      <c r="G13" s="0" t="inlineStr">
+        <is>
+          <t>06142103701059</t>
+        </is>
+      </c>
+      <c r="H13" s="0" t="inlineStr">
+        <is>
+          <t>LEMUS ESCALANTE</t>
+        </is>
+      </c>
+      <c r="I13" s="0" t="inlineStr">
+        <is>
+          <t>ERIC LOMBARDO</t>
+        </is>
+      </c>
+      <c r="J13" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K13" s="0" t="inlineStr">
+        <is>
+          <t>62849154</t>
+        </is>
+      </c>
+      <c r="L13" s="0" t="inlineStr">
+        <is>
+          <t>132.80</t>
+        </is>
+      </c>
+      <c r="M13" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>47654</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE TURISTA</t>
+        </is>
+      </c>
+      <c r="E14" s="0" t="inlineStr">
+        <is>
+          <t>sv-le47654</t>
+        </is>
+      </c>
+      <c r="F14" s="0" t="inlineStr">
+        <is>
+          <t>019451365</t>
+        </is>
+      </c>
+      <c r="G14" s="0" t="inlineStr">
+        <is>
+          <t>06141810711153</t>
+        </is>
+      </c>
+      <c r="H14" s="0" t="inlineStr">
+        <is>
+          <t>LOPEZ DE CARDOZA</t>
+        </is>
+      </c>
+      <c r="I14" s="0" t="inlineStr">
+        <is>
+          <t>EVELYN ELIZABETH</t>
+        </is>
+      </c>
+      <c r="J14" s="0" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="K14" s="0" t="inlineStr">
+        <is>
+          <t>78332389</t>
+        </is>
+      </c>
+      <c r="L14" s="0" t="inlineStr">
+        <is>
+          <t>183.40</t>
+        </is>
+      </c>
+      <c r="M14" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>47655</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D15" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE TURISTA</t>
+        </is>
+      </c>
+      <c r="E15" s="0" t="inlineStr">
+        <is>
+          <t>sv-mm47655</t>
+        </is>
+      </c>
+      <c r="F15" s="0" t="inlineStr">
+        <is>
+          <t>023262697</t>
+        </is>
+      </c>
+      <c r="G15" s="0" t="inlineStr">
+        <is>
+          <t>06141706681145</t>
+        </is>
+      </c>
+      <c r="H15" s="0" t="inlineStr">
+        <is>
+          <t>MELARA CASTILLO</t>
+        </is>
+      </c>
+      <c r="I15" s="0" t="inlineStr">
+        <is>
+          <t>MARITZA DEL CARMEN</t>
+        </is>
+      </c>
+      <c r="J15" s="0" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="K15" s="0" t="inlineStr">
+        <is>
+          <t>78332541</t>
+        </is>
+      </c>
+      <c r="L15" s="0" t="inlineStr">
+        <is>
+          <t>214.60</t>
+        </is>
+      </c>
+      <c r="M15" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>47657</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D16" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE TURISTA</t>
+        </is>
+      </c>
+      <c r="E16" s="0" t="inlineStr">
+        <is>
+          <t>sv-dr47657</t>
+        </is>
+      </c>
+      <c r="F16" s="0" t="inlineStr">
+        <is>
+          <t>008644581</t>
+        </is>
+      </c>
+      <c r="G16" s="0" t="inlineStr">
+        <is>
+          <t>03120503650014</t>
+        </is>
+      </c>
+      <c r="H16" s="0" t="inlineStr">
+        <is>
+          <t>DIAZ DE CORVERA</t>
+        </is>
+      </c>
+      <c r="I16" s="0" t="inlineStr">
+        <is>
+          <t>ROSSANA ELISABETH</t>
+        </is>
+      </c>
+      <c r="J16" s="0" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="K16" s="0" t="inlineStr">
+        <is>
+          <t>74575307</t>
+        </is>
+      </c>
+      <c r="L16" s="0" t="inlineStr">
+        <is>
+          <t>283.80</t>
+        </is>
+      </c>
+      <c r="M16" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>47658</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C17" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D17" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE TURISTA</t>
+        </is>
+      </c>
+      <c r="E17" s="0" t="inlineStr">
+        <is>
+          <t>sv-em47658</t>
+        </is>
+      </c>
+      <c r="F17" s="0" t="inlineStr">
+        <is>
+          <t>003749849</t>
+        </is>
+      </c>
+      <c r="G17" s="0" t="inlineStr">
+        <is>
+          <t>06190301791017</t>
+        </is>
+      </c>
+      <c r="H17" s="0" t="inlineStr">
+        <is>
+          <t>ERAZO VASQUEZ</t>
+        </is>
+      </c>
+      <c r="I17" s="0" t="inlineStr">
+        <is>
+          <t>MARVIN VITELIO</t>
+        </is>
+      </c>
+      <c r="J17" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K17" s="0" t="inlineStr">
+        <is>
+          <t>77865956</t>
+        </is>
+      </c>
+      <c r="L17" s="0" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="M17" s="0" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>47659</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C18" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D18" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE GUBERNAMENTAL</t>
+        </is>
+      </c>
+      <c r="E18" s="0" t="inlineStr">
+        <is>
+          <t>sv-jj47659</t>
+        </is>
+      </c>
+      <c r="F18" s="0" t="inlineStr">
+        <is>
+          <t>005574868</t>
+        </is>
+      </c>
+      <c r="G18" s="0" t="inlineStr">
+        <is>
+          <t>02032303831017</t>
+        </is>
+      </c>
+      <c r="H18" s="0" t="inlineStr">
+        <is>
+          <t>JIMENEZ PINTIN</t>
+        </is>
+      </c>
+      <c r="I18" s="0" t="inlineStr">
+        <is>
+          <t>JOSE RODOLFO</t>
+        </is>
+      </c>
+      <c r="J18" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K18" s="0" t="inlineStr">
+        <is>
+          <t>62634944</t>
+        </is>
+      </c>
+      <c r="L18" s="0" t="inlineStr">
+        <is>
+          <t>52.00</t>
+        </is>
+      </c>
+      <c r="M18" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>47660</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C19" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D19" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE GUBERNAMENTAL</t>
+        </is>
+      </c>
+      <c r="E19" s="0" t="inlineStr">
+        <is>
+          <t>sv-gm47660</t>
+        </is>
+      </c>
+      <c r="F19" s="0" t="inlineStr">
+        <is>
+          <t>011299272</t>
+        </is>
+      </c>
+      <c r="G19" s="0" t="inlineStr">
+        <is>
+          <t>08051205721013</t>
+        </is>
+      </c>
+      <c r="H19" s="0" t="inlineStr">
+        <is>
+          <t>GRANDE CASTELLANOS</t>
+        </is>
+      </c>
+      <c r="I19" s="0" t="inlineStr">
+        <is>
+          <t>MANUEL ENRIQUE</t>
+        </is>
+      </c>
+      <c r="J19" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K19" s="0" t="inlineStr">
+        <is>
+          <t>62845726</t>
+        </is>
+      </c>
+      <c r="L19" s="0" t="inlineStr">
+        <is>
+          <t>186.20</t>
+        </is>
+      </c>
+      <c r="M19" s="0" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>47661</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C20" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D20" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE GUBERNAMENTAL</t>
+        </is>
+      </c>
+      <c r="E20" s="0" t="inlineStr">
+        <is>
+          <t>sv-ap47661</t>
+        </is>
+      </c>
+      <c r="F20" s="0" t="inlineStr">
+        <is>
+          <t>034079691</t>
+        </is>
+      </c>
+      <c r="G20" s="0" t="inlineStr">
+        <is>
+          <t>06090612851027</t>
+        </is>
+      </c>
+      <c r="H20" s="0" t="inlineStr">
+        <is>
+          <t>AMAYA ORTEGA</t>
+        </is>
+      </c>
+      <c r="I20" s="0" t="inlineStr">
+        <is>
+          <t>PEDRO ALFONSO</t>
+        </is>
+      </c>
+      <c r="J20" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K20" s="0" t="inlineStr">
+        <is>
+          <t>73910697</t>
+        </is>
+      </c>
+      <c r="L20" s="0" t="inlineStr">
+        <is>
+          <t>308.00</t>
+        </is>
+      </c>
+      <c r="M20" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>47662</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C21" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D21" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE TURISTA</t>
+        </is>
+      </c>
+      <c r="E21" s="0" t="inlineStr">
+        <is>
+          <t>sv-lj47662</t>
+        </is>
+      </c>
+      <c r="F21" s="0" t="inlineStr">
+        <is>
+          <t>039759694</t>
+        </is>
+      </c>
+      <c r="G21" s="0" t="inlineStr">
+        <is>
+          <t>06122408881013</t>
+        </is>
+      </c>
+      <c r="H21" s="0" t="inlineStr">
+        <is>
+          <t>LOPEZ URQUILLA</t>
+        </is>
+      </c>
+      <c r="I21" s="0" t="inlineStr">
+        <is>
+          <t>JORGE MATEO</t>
+        </is>
+      </c>
+      <c r="J21" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K21" s="0" t="inlineStr">
+        <is>
+          <t>78326391</t>
+        </is>
+      </c>
+      <c r="L21" s="0" t="inlineStr">
+        <is>
+          <t>205.80</t>
+        </is>
+      </c>
+      <c r="M21" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>47664</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C22" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D22" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE TURISTA</t>
+        </is>
+      </c>
+      <c r="E22" s="0" t="inlineStr">
+        <is>
+          <t>sv-rc47664</t>
+        </is>
+      </c>
+      <c r="F22" s="0" t="inlineStr">
+        <is>
+          <t>005693719</t>
+        </is>
+      </c>
+      <c r="G22" s="0" t="inlineStr">
+        <is>
+          <t>06140203831321</t>
+        </is>
+      </c>
+      <c r="H22" s="0" t="inlineStr">
+        <is>
+          <t>ROSALES MACHADO</t>
+        </is>
+      </c>
+      <c r="I22" s="0" t="inlineStr">
+        <is>
+          <t>CARLOS RODOLFO</t>
+        </is>
+      </c>
+      <c r="J22" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K22" s="0" t="inlineStr">
+        <is>
+          <t>65666345</t>
+        </is>
+      </c>
+      <c r="L22" s="0" t="inlineStr">
+        <is>
+          <t>367.60</t>
+        </is>
+      </c>
+      <c r="M22" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>47669</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C23" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D23" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE GUBERNAMENTAL</t>
+        </is>
+      </c>
+      <c r="E23" s="0" t="inlineStr">
+        <is>
+          <t>sv-ae47669</t>
+        </is>
+      </c>
+      <c r="F23" s="0" t="inlineStr">
+        <is>
+          <t>004536087</t>
+        </is>
+      </c>
+      <c r="G23" s="0" t="inlineStr">
+        <is>
+          <t>08113011611018</t>
+        </is>
+      </c>
+      <c r="H23" s="0" t="inlineStr">
+        <is>
+          <t>ALVARADO ALVAREZ</t>
+        </is>
+      </c>
+      <c r="I23" s="0" t="inlineStr">
+        <is>
+          <t>ESTANISLAO</t>
+        </is>
+      </c>
+      <c r="J23" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K23" s="0" t="inlineStr">
+        <is>
+          <t>79939305</t>
+        </is>
+      </c>
+      <c r="L23" s="0" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="M23" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>47670</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C24" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D24" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE TURISTA</t>
+        </is>
+      </c>
+      <c r="E24" s="0" t="inlineStr">
+        <is>
+          <t>sv-pc47670</t>
+        </is>
+      </c>
+      <c r="F24" s="0" t="inlineStr">
+        <is>
+          <t>010402432</t>
+        </is>
+      </c>
+      <c r="G24" s="0" t="inlineStr">
+        <is>
+          <t>07142305731026</t>
+        </is>
+      </c>
+      <c r="H24" s="0" t="inlineStr">
+        <is>
+          <t>PALACIOS DE GUARDADO</t>
+        </is>
+      </c>
+      <c r="I24" s="0" t="inlineStr">
+        <is>
+          <t>CRUZ MARINA</t>
+        </is>
+      </c>
+      <c r="J24" s="0" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="K24" s="0" t="inlineStr">
+        <is>
+          <t>62039568</t>
+        </is>
+      </c>
+      <c r="L24" s="0" t="inlineStr">
+        <is>
+          <t>194.60</t>
+        </is>
+      </c>
+      <c r="M24" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>47671</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C25" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D25" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE TURISTA</t>
+        </is>
+      </c>
+      <c r="E25" s="0" t="inlineStr">
+        <is>
+          <t>sv-rm47671</t>
+        </is>
+      </c>
+      <c r="F25" s="0" t="inlineStr">
+        <is>
+          <t>007381512</t>
+        </is>
+      </c>
+      <c r="G25" s="0" t="inlineStr">
+        <is>
+          <t>06143105701141</t>
+        </is>
+      </c>
+      <c r="H25" s="0" t="inlineStr">
+        <is>
+          <t>RIVERA MEDRANO</t>
+        </is>
+      </c>
+      <c r="I25" s="0" t="inlineStr">
+        <is>
+          <t>MANUEL ALFREDO</t>
+        </is>
+      </c>
+      <c r="J25" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K25" s="0" t="inlineStr">
+        <is>
+          <t>71895007</t>
+        </is>
+      </c>
+      <c r="L25" s="0" t="inlineStr">
+        <is>
+          <t>302.80</t>
+        </is>
+      </c>
+      <c r="M25" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>47672</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C26" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D26" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE TURISTA</t>
+        </is>
+      </c>
+      <c r="E26" s="0" t="inlineStr">
+        <is>
+          <t>sv-al47672</t>
+        </is>
+      </c>
+      <c r="F26" s="0" t="inlineStr">
+        <is>
+          <t>004928389</t>
+        </is>
+      </c>
+      <c r="G26" s="0" t="inlineStr">
+        <is>
+          <t>02100203821052</t>
+        </is>
+      </c>
+      <c r="H26" s="0" t="inlineStr">
+        <is>
+          <t>ALVAREZ HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="I26" s="0" t="inlineStr">
+        <is>
+          <t>LUIS ALONSO</t>
+        </is>
+      </c>
+      <c r="J26" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K26" s="0" t="inlineStr">
+        <is>
+          <t>76631438</t>
+        </is>
+      </c>
+      <c r="L26" s="0" t="inlineStr">
+        <is>
+          <t>301.80</t>
+        </is>
+      </c>
+      <c r="M26" s="0" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>47674</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C27" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D27" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE GUBERNAMENTAL</t>
+        </is>
+      </c>
+      <c r="E27" s="0" t="inlineStr">
+        <is>
+          <t>sv-ar47674</t>
+        </is>
+      </c>
+      <c r="F27" s="0" t="inlineStr">
+        <is>
+          <t>027572002</t>
+        </is>
+      </c>
+      <c r="G27" s="0" t="inlineStr">
+        <is>
+          <t>01080712811010</t>
+        </is>
+      </c>
+      <c r="H27" s="0" t="inlineStr">
+        <is>
+          <t>AYALA SARMIENTO</t>
+        </is>
+      </c>
+      <c r="I27" s="0" t="inlineStr">
+        <is>
+          <t>REYNALDA EMILIA</t>
+        </is>
+      </c>
+      <c r="J27" s="0" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="K27" s="0" t="inlineStr">
+        <is>
+          <t>65291430</t>
+        </is>
+      </c>
+      <c r="L27" s="0" t="inlineStr">
+        <is>
+          <t>339.60</t>
+        </is>
+      </c>
+      <c r="M27" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>47675</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C28" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D28" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE GUBERNAMENTAL</t>
+        </is>
+      </c>
+      <c r="E28" s="0" t="inlineStr">
+        <is>
+          <t>sv-lj47675</t>
+        </is>
+      </c>
+      <c r="F28" s="0" t="inlineStr">
+        <is>
+          <t>034541664</t>
+        </is>
+      </c>
+      <c r="G28" s="0" t="inlineStr">
+        <is>
+          <t>08212801801052</t>
+        </is>
+      </c>
+      <c r="H28" s="0" t="inlineStr">
+        <is>
+          <t>LOPEZ ROMERO</t>
+        </is>
+      </c>
+      <c r="I28" s="0" t="inlineStr">
+        <is>
+          <t>JORGE ALBERTO</t>
+        </is>
+      </c>
+      <c r="J28" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K28" s="0" t="inlineStr">
+        <is>
+          <t>71146362</t>
+        </is>
+      </c>
+      <c r="L28" s="0" t="inlineStr">
+        <is>
+          <t>118.40</t>
+        </is>
+      </c>
+      <c r="M28" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>47678</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C29" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D29" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE GUBERNAMENTAL</t>
+        </is>
+      </c>
+      <c r="E29" s="0" t="inlineStr">
+        <is>
+          <t>sv-sr47678</t>
+        </is>
+      </c>
+      <c r="F29" s="0" t="inlineStr">
+        <is>
+          <t>005423740</t>
+        </is>
+      </c>
+      <c r="G29" s="0" t="inlineStr">
+        <is>
+          <t>02101501500022</t>
+        </is>
+      </c>
+      <c r="H29" s="0" t="inlineStr">
+        <is>
+          <t>SILIEZAR SALINAS</t>
+        </is>
+      </c>
+      <c r="I29" s="0" t="inlineStr">
+        <is>
+          <t>RICARDO ANTONIO</t>
+        </is>
+      </c>
+      <c r="J29" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K29" s="0" t="inlineStr">
+        <is>
+          <t>62930678</t>
+        </is>
+      </c>
+      <c r="L29" s="0" t="inlineStr">
+        <is>
+          <t>61.20</t>
+        </is>
+      </c>
+      <c r="M29" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>47681</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C30" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D30" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE TURISTA</t>
+        </is>
+      </c>
+      <c r="E30" s="0" t="inlineStr">
+        <is>
+          <t>sv-oj47681</t>
+        </is>
+      </c>
+      <c r="F30" s="0" t="inlineStr">
+        <is>
+          <t>023747142</t>
+        </is>
+      </c>
+      <c r="G30" s="0" t="inlineStr">
+        <is>
+          <t>14160802600014</t>
+        </is>
+      </c>
+      <c r="H30" s="0" t="inlineStr">
+        <is>
+          <t>ORTEZ HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="I30" s="0" t="inlineStr">
+        <is>
+          <t>JORGE ALBERTO</t>
+        </is>
+      </c>
+      <c r="J30" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K30" s="0" t="inlineStr">
+        <is>
+          <t>66694982</t>
+        </is>
+      </c>
+      <c r="L30" s="0" t="inlineStr">
+        <is>
+          <t>110.80</t>
+        </is>
+      </c>
+      <c r="M30" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>47684</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C31" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D31" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE GUBERNAMENTAL</t>
+        </is>
+      </c>
+      <c r="E31" s="0" t="inlineStr">
+        <is>
+          <t>sv-hm47684</t>
+        </is>
+      </c>
+      <c r="F31" s="0" t="inlineStr">
+        <is>
+          <t>044322193</t>
+        </is>
+      </c>
+      <c r="G31" s="0" t="inlineStr">
+        <is>
+          <t>06141203911305</t>
+        </is>
+      </c>
+      <c r="H31" s="0" t="inlineStr">
+        <is>
+          <t>HERNANDEZ CANTARELY</t>
+        </is>
+      </c>
+      <c r="I31" s="0" t="inlineStr">
+        <is>
+          <t>MILTON SAMUEL</t>
+        </is>
+      </c>
+      <c r="J31" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K31" s="0" t="inlineStr">
+        <is>
+          <t>75812813</t>
+        </is>
+      </c>
+      <c r="L31" s="0" t="inlineStr">
+        <is>
+          <t>192.40</t>
+        </is>
+      </c>
+      <c r="M31" s="0" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>47685</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C32" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D32" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE TURISTA</t>
+        </is>
+      </c>
+      <c r="E32" s="0" t="inlineStr">
+        <is>
+          <t>sv-mh47685</t>
+        </is>
+      </c>
+      <c r="F32" s="0" t="inlineStr">
+        <is>
+          <t>029491286</t>
+        </is>
+      </c>
+      <c r="G32" s="0" t="inlineStr">
+        <is>
+          <t>05110805851013</t>
+        </is>
+      </c>
+      <c r="H32" s="0" t="inlineStr">
+        <is>
+          <t>MARTINEZ ARGUETA</t>
+        </is>
+      </c>
+      <c r="I32" s="0" t="inlineStr">
+        <is>
+          <t>HIRBINJ NOE</t>
+        </is>
+      </c>
+      <c r="J32" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K32" s="0" t="inlineStr">
+        <is>
+          <t>62350594</t>
+        </is>
+      </c>
+      <c r="L32" s="0" t="inlineStr">
+        <is>
+          <t>39.20</t>
+        </is>
+      </c>
+      <c r="M32" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>47686</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C33" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D33" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE TURISTA</t>
+        </is>
+      </c>
+      <c r="E33" s="0" t="inlineStr">
+        <is>
+          <t>sv-ba47686</t>
+        </is>
+      </c>
+      <c r="F33" s="0" t="inlineStr">
+        <is>
+          <t>001194832</t>
+        </is>
+      </c>
+      <c r="G33" s="0" t="inlineStr">
+        <is>
+          <t>06142512590060</t>
+        </is>
+      </c>
+      <c r="H33" s="0" t="inlineStr">
+        <is>
+          <t>BENITEZ ARGUETA</t>
+        </is>
+      </c>
+      <c r="I33" s="0" t="inlineStr">
+        <is>
+          <t>ANA IRMA</t>
+        </is>
+      </c>
+      <c r="J33" s="0" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="K33" s="0" t="inlineStr">
+        <is>
+          <t>62705458</t>
+        </is>
+      </c>
+      <c r="L33" s="0" t="inlineStr">
+        <is>
+          <t>390.80</t>
+        </is>
+      </c>
+      <c r="M33" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>47687</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C34" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D34" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE TURISTA</t>
+        </is>
+      </c>
+      <c r="E34" s="0" t="inlineStr">
+        <is>
+          <t>sv-mo47687</t>
+        </is>
+      </c>
+      <c r="F34" s="0" t="inlineStr">
+        <is>
+          <t>021590515</t>
+        </is>
+      </c>
+      <c r="G34" s="0" t="inlineStr">
+        <is>
+          <t>06141810841120</t>
+        </is>
+      </c>
+      <c r="H34" s="0" t="inlineStr">
+        <is>
+          <t>MOREJON LOPEZ</t>
+        </is>
+      </c>
+      <c r="I34" s="0" t="inlineStr">
+        <is>
+          <t>OSMIN EDGARDO</t>
+        </is>
+      </c>
+      <c r="J34" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K34" s="0" t="inlineStr">
+        <is>
+          <t>62923539</t>
+        </is>
+      </c>
+      <c r="L34" s="0" t="inlineStr">
+        <is>
+          <t>84.40</t>
+        </is>
+      </c>
+      <c r="M34" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>47689</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C35" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D35" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE TURISTA</t>
+        </is>
+      </c>
+      <c r="E35" s="0" t="inlineStr">
+        <is>
+          <t>sv-co47689</t>
+        </is>
+      </c>
+      <c r="F35" s="0" t="inlineStr">
+        <is>
+          <t>024733007</t>
+        </is>
+      </c>
+      <c r="G35" s="0" t="inlineStr">
+        <is>
+          <t>10102906650011</t>
+        </is>
+      </c>
+      <c r="H35" s="0" t="inlineStr">
+        <is>
+          <t>CARRILLO TURCIOS</t>
+        </is>
+      </c>
+      <c r="I35" s="0" t="inlineStr">
+        <is>
+          <t>OSCAR MAURICIO</t>
+        </is>
+      </c>
+      <c r="J35" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K35" s="0" t="inlineStr">
+        <is>
+          <t>62888115</t>
+        </is>
+      </c>
+      <c r="L35" s="0" t="inlineStr">
+        <is>
+          <t>227.80</t>
+        </is>
+      </c>
+      <c r="M35" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>47690</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C36" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D36" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE TURISTA</t>
+        </is>
+      </c>
+      <c r="E36" s="0" t="inlineStr">
+        <is>
+          <t>sv-af47690</t>
+        </is>
+      </c>
+      <c r="F36" s="0" t="inlineStr">
+        <is>
+          <t>012967399</t>
+        </is>
+      </c>
+      <c r="G36" s="0" t="inlineStr">
+        <is>
+          <t>02100406610027</t>
+        </is>
+      </c>
+      <c r="H36" s="0" t="inlineStr">
+        <is>
+          <t>ALARCON SANDOVAL</t>
+        </is>
+      </c>
+      <c r="I36" s="0" t="inlineStr">
+        <is>
+          <t>FRANCISCO ANTONIO</t>
+        </is>
+      </c>
+      <c r="J36" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K36" s="0" t="inlineStr">
+        <is>
+          <t>78700337</t>
+        </is>
+      </c>
+      <c r="L36" s="0" t="inlineStr">
+        <is>
+          <t>64.80</t>
+        </is>
+      </c>
+      <c r="M36" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>47692</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C37" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D37" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE TURISTA</t>
+        </is>
+      </c>
+      <c r="E37" s="0" t="inlineStr">
+        <is>
+          <t>sv-cf47692</t>
+        </is>
+      </c>
+      <c r="F37" s="0" t="inlineStr">
+        <is>
+          <t>016033299</t>
+        </is>
+      </c>
+      <c r="G37" s="0" t="inlineStr">
+        <is>
+          <t>06141610450026</t>
+        </is>
+      </c>
+      <c r="H37" s="0" t="inlineStr">
+        <is>
+          <t>CASTILLO GRIJALVA</t>
+        </is>
+      </c>
+      <c r="I37" s="0" t="inlineStr">
+        <is>
+          <t>FABIO ANTONIO</t>
+        </is>
+      </c>
+      <c r="J37" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K37" s="0" t="inlineStr">
+        <is>
+          <t>62226303</t>
+        </is>
+      </c>
+      <c r="L37" s="0" t="inlineStr">
+        <is>
+          <t>222.20</t>
+        </is>
+      </c>
+      <c r="M37" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>47697</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C38" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D38" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE GUBERNAMENTAL</t>
+        </is>
+      </c>
+      <c r="E38" s="0" t="inlineStr">
+        <is>
+          <t>sv-dm47697</t>
+        </is>
+      </c>
+      <c r="F38" s="0" t="inlineStr">
+        <is>
+          <t>007291791</t>
+        </is>
+      </c>
+      <c r="G38" s="0" t="inlineStr">
+        <is>
+          <t>06091504570018</t>
+        </is>
+      </c>
+      <c r="H38" s="0" t="inlineStr">
+        <is>
+          <t>DURAN RODRIGUEZ</t>
+        </is>
+      </c>
+      <c r="I38" s="0" t="inlineStr">
+        <is>
+          <t>MANUEL HERIBERTO</t>
+        </is>
+      </c>
+      <c r="J38" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K38" s="0" t="inlineStr">
+        <is>
+          <t>78804336</t>
+        </is>
+      </c>
+      <c r="L38" s="0" t="inlineStr">
+        <is>
+          <t>352.40</t>
+        </is>
+      </c>
+      <c r="M38" s="0" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>47700</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C39" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D39" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE TURISTA</t>
+        </is>
+      </c>
+      <c r="E39" s="0" t="inlineStr">
+        <is>
+          <t>sv-mf47700</t>
+        </is>
+      </c>
+      <c r="F39" s="0" t="inlineStr">
+        <is>
+          <t>008891316</t>
+        </is>
+      </c>
+      <c r="G39" s="0" t="inlineStr">
+        <is>
+          <t>06140912580163</t>
+        </is>
+      </c>
+      <c r="H39" s="0" t="inlineStr">
+        <is>
+          <t>MIXCO LOPEZ</t>
+        </is>
+      </c>
+      <c r="I39" s="0" t="inlineStr">
+        <is>
+          <t>FRANCISCO REMBERTO</t>
+        </is>
+      </c>
+      <c r="J39" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K39" s="0" t="inlineStr">
+        <is>
+          <t>62763473</t>
+        </is>
+      </c>
+      <c r="L39" s="0" t="inlineStr">
+        <is>
+          <t>155.20</t>
+        </is>
+      </c>
+      <c r="M39" s="0" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>47704</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C40" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D40" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE TURISTA</t>
+        </is>
+      </c>
+      <c r="E40" s="0" t="inlineStr">
+        <is>
+          <t>sv-ff47704</t>
+        </is>
+      </c>
+      <c r="F40" s="0" t="inlineStr">
+        <is>
+          <t>010547135</t>
+        </is>
+      </c>
+      <c r="G40" s="0" t="inlineStr">
+        <is>
+          <t>05110702821019</t>
+        </is>
+      </c>
+      <c r="H40" s="0" t="inlineStr">
+        <is>
+          <t>FLORES SARMIENTO</t>
+        </is>
+      </c>
+      <c r="I40" s="0" t="inlineStr">
+        <is>
+          <t>FRANCISCO STEVE</t>
+        </is>
+      </c>
+      <c r="J40" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K40" s="0" t="inlineStr">
+        <is>
+          <t>79211113</t>
+        </is>
+      </c>
+      <c r="L40" s="0" t="inlineStr">
+        <is>
+          <t>70.80</t>
+        </is>
+      </c>
+      <c r="M40" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>47705</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C41" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D41" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE TURISTA</t>
+        </is>
+      </c>
+      <c r="E41" s="0" t="inlineStr">
+        <is>
+          <t>sv-ns47705</t>
+        </is>
+      </c>
+      <c r="F41" s="0" t="inlineStr">
+        <is>
+          <t>001153995</t>
+        </is>
+      </c>
+      <c r="G41" s="0" t="inlineStr">
+        <is>
+          <t>06040906681017</t>
+        </is>
+      </c>
+      <c r="H41" s="0" t="inlineStr">
+        <is>
+          <t>NAVARRETE LEONOR</t>
+        </is>
+      </c>
+      <c r="I41" s="0" t="inlineStr">
+        <is>
+          <t>SIMEON</t>
+        </is>
+      </c>
+      <c r="J41" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K41" s="0" t="inlineStr">
+        <is>
+          <t>61242645</t>
+        </is>
+      </c>
+      <c r="L41" s="0" t="inlineStr">
+        <is>
+          <t>199.00</t>
+        </is>
+      </c>
+      <c r="M41" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>47714</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C42" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D42" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE GUBERNAMENTAL</t>
+        </is>
+      </c>
+      <c r="E42" s="0" t="inlineStr">
+        <is>
+          <t>sv-me47714</t>
+        </is>
+      </c>
+      <c r="F42" s="0" t="inlineStr">
+        <is>
+          <t>004495689</t>
+        </is>
+      </c>
+      <c r="G42" s="0" t="inlineStr">
+        <is>
+          <t>10091002791017</t>
+        </is>
+      </c>
+      <c r="H42" s="0" t="inlineStr">
+        <is>
+          <t>MEJIA MOLINA</t>
+        </is>
+      </c>
+      <c r="I42" s="0" t="inlineStr">
+        <is>
+          <t>ERIC ALEXANDER</t>
+        </is>
+      </c>
+      <c r="J42" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K42" s="0" t="inlineStr">
+        <is>
+          <t>70831594</t>
+        </is>
+      </c>
+      <c r="L42" s="0" t="inlineStr">
+        <is>
+          <t>61.40</t>
+        </is>
+      </c>
+      <c r="M42" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>47715</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C43" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+      <c r="D43" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE TURISTA</t>
+        </is>
+      </c>
+      <c r="E43" s="0" t="inlineStr">
+        <is>
+          <t>sv-hg47715</t>
+        </is>
+      </c>
+      <c r="F43" s="0" t="inlineStr">
+        <is>
+          <t>038162064</t>
+        </is>
+      </c>
+      <c r="G43" s="0" t="inlineStr">
+        <is>
+          <t>06142410871140</t>
+        </is>
+      </c>
+      <c r="H43" s="0" t="inlineStr">
+        <is>
+          <t>HERNANDEZ MEMBREÑO</t>
+        </is>
+      </c>
+      <c r="I43" s="0" t="inlineStr">
+        <is>
+          <t>GUSTAVO RAFAEL</t>
+        </is>
+      </c>
+      <c r="J43" s="0" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="K43" s="0" t="inlineStr">
+        <is>
+          <t>71048822</t>
+        </is>
+      </c>
+      <c r="L43" s="0" t="inlineStr">
+        <is>
+          <t>363.00</t>
+        </is>
+      </c>
+      <c r="M43" s="0" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
       </c>
     </row>
   </sheetData>
